--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H2">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I2">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>0.1313057277483334</v>
+        <v>0.1391051050816666</v>
       </c>
       <c r="R2">
-        <v>1.181751549735</v>
+        <v>1.251945945735</v>
       </c>
       <c r="S2">
-        <v>0.2199220186778115</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="T2">
-        <v>0.2199220186778115</v>
+        <v>0.3133663986859022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H3">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I3">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>0.1406827511166667</v>
+        <v>0.1406827511166666</v>
       </c>
       <c r="R3">
         <v>1.26614476005</v>
       </c>
       <c r="S3">
-        <v>0.2356274562372866</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="T3">
-        <v>0.2356274562372866</v>
+        <v>0.3169204109998198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H4">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I4">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>0.06385686101666668</v>
+        <v>0.1157990042116666</v>
       </c>
       <c r="R4">
-        <v>0.57471174915</v>
+        <v>1.042191037905</v>
       </c>
       <c r="S4">
-        <v>0.106952910752913</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="T4">
-        <v>0.106952910752913</v>
+        <v>0.2608640200510233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.003005</v>
+        <v>0.003004999999999999</v>
       </c>
       <c r="H5">
-        <v>0.009015</v>
+        <v>0.009014999999999999</v>
       </c>
       <c r="I5">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6535450195737277</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>0.05435753715333335</v>
+        <v>0.04831875826833332</v>
       </c>
       <c r="R5">
-        <v>0.48921783438</v>
+        <v>0.4348688244149999</v>
       </c>
       <c r="S5">
-        <v>0.09104263390571662</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="T5">
-        <v>0.09104263390571662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.001593</v>
-      </c>
-      <c r="H6">
-        <v>0.004779</v>
-      </c>
-      <c r="I6">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J6">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>43.69574966666666</v>
-      </c>
-      <c r="N6">
-        <v>131.087249</v>
-      </c>
-      <c r="O6">
-        <v>0.3365063034544351</v>
-      </c>
-      <c r="P6">
-        <v>0.3365063034544351</v>
-      </c>
-      <c r="Q6">
-        <v>0.06960732921899999</v>
-      </c>
-      <c r="R6">
-        <v>0.626465962971</v>
-      </c>
-      <c r="S6">
-        <v>0.1165842847766235</v>
-      </c>
-      <c r="T6">
-        <v>0.1165842847766236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.001593</v>
-      </c>
-      <c r="H7">
-        <v>0.004779</v>
-      </c>
-      <c r="I7">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J7">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>46.81622333333334</v>
-      </c>
-      <c r="N7">
-        <v>140.44867</v>
-      </c>
-      <c r="O7">
-        <v>0.3605374521727267</v>
-      </c>
-      <c r="P7">
-        <v>0.3605374521727267</v>
-      </c>
-      <c r="Q7">
-        <v>0.07457824377000001</v>
-      </c>
-      <c r="R7">
-        <v>0.6712041939300002</v>
-      </c>
-      <c r="S7">
-        <v>0.1249099959354401</v>
-      </c>
-      <c r="T7">
-        <v>0.1249099959354401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.001593</v>
-      </c>
-      <c r="H8">
-        <v>0.004779</v>
-      </c>
-      <c r="I8">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J8">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>21.25020333333334</v>
-      </c>
-      <c r="N8">
-        <v>63.75061</v>
-      </c>
-      <c r="O8">
-        <v>0.1636504105297484</v>
-      </c>
-      <c r="P8">
-        <v>0.1636504105297484</v>
-      </c>
-      <c r="Q8">
-        <v>0.03385157391</v>
-      </c>
-      <c r="R8">
-        <v>0.30466416519</v>
-      </c>
-      <c r="S8">
-        <v>0.05669749977683539</v>
-      </c>
-      <c r="T8">
-        <v>0.05669749977683539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.001593</v>
-      </c>
-      <c r="H9">
-        <v>0.004779</v>
-      </c>
-      <c r="I9">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="J9">
-        <v>0.3464549804262723</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.08903066666667</v>
-      </c>
-      <c r="N9">
-        <v>54.26709200000001</v>
-      </c>
-      <c r="O9">
-        <v>0.1393058338430899</v>
-      </c>
-      <c r="P9">
-        <v>0.1393058338430899</v>
-      </c>
-      <c r="Q9">
-        <v>0.02881582585200001</v>
-      </c>
-      <c r="R9">
-        <v>0.2593424326680001</v>
-      </c>
-      <c r="S9">
-        <v>0.04826319993737323</v>
-      </c>
-      <c r="T9">
-        <v>0.04826319993737324</v>
+        <v>0.1088491702632547</v>
       </c>
     </row>
   </sheetData>
